--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111543957</v>
+        <v>111545401</v>
       </c>
       <c r="B2" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -733,14 +733,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>480406.6045043401</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R2" t="n">
-        <v>6772745.04339793</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111545401</v>
+        <v>111545414</v>
       </c>
       <c r="B3" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,30 +821,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -938,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545328</v>
+        <v>111545323</v>
       </c>
       <c r="B4" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,30 +950,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111545414</v>
+        <v>111543968</v>
       </c>
       <c r="B5" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,37 +1075,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -1116,14 +1112,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>480487.2503558649</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R5" t="n">
-        <v>6772784.264016891</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1192,10 +1188,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111545323</v>
+        <v>111545328</v>
       </c>
       <c r="B6" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1204,30 +1200,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1317,10 +1313,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111543968</v>
+        <v>111543957</v>
       </c>
       <c r="B7" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1329,33 +1325,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111545401</v>
+        <v>111545414</v>
       </c>
       <c r="B2" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111545414</v>
+        <v>111545323</v>
       </c>
       <c r="B3" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,37 +821,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -862,14 +858,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>480487.2503558649</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R3" t="n">
-        <v>6772784.264016891</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -938,7 +934,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545323</v>
+        <v>111545401</v>
       </c>
       <c r="B4" t="n">
         <v>57487</v>
@@ -973,10 +969,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -987,14 +987,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>480427.8053356989</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R4" t="n">
-        <v>6772811.198980245</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111543968</v>
+        <v>111545328</v>
       </c>
       <c r="B5" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,30 +1075,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>480406.6045043401</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R5" t="n">
-        <v>6772745.04339793</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111545328</v>
+        <v>111543957</v>
       </c>
       <c r="B6" t="n">
         <v>57494</v>
@@ -1226,7 +1226,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1237,14 +1241,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>480427.8053356989</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R6" t="n">
-        <v>6772811.198980245</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1313,10 +1317,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111543957</v>
+        <v>111543968</v>
       </c>
       <c r="B7" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1325,37 +1329,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111545414</v>
+        <v>111543957</v>
       </c>
       <c r="B2" t="n">
         <v>57494</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -733,14 +733,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>480487.2503558649</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R2" t="n">
-        <v>6772784.264016891</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545401</v>
+        <v>111545414</v>
       </c>
       <c r="B4" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,30 +946,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1188,10 +1188,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111543957</v>
+        <v>111545401</v>
       </c>
       <c r="B6" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1200,30 +1200,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1241,14 +1241,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>480406.6045043401</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R6" t="n">
-        <v>6772745.04339793</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111543957</v>
+        <v>111543968</v>
       </c>
       <c r="B2" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,37 +692,33 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -809,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111545323</v>
+        <v>111545328</v>
       </c>
       <c r="B3" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,30 +817,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -934,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545414</v>
+        <v>111543957</v>
       </c>
       <c r="B4" t="n">
         <v>57494</v>
@@ -969,7 +965,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -987,14 +983,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>480487.2503558649</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R4" t="n">
-        <v>6772784.264016891</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1063,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111545328</v>
+        <v>111545414</v>
       </c>
       <c r="B5" t="n">
         <v>57494</v>
@@ -1098,10 +1094,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>480427.8053356989</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R5" t="n">
-        <v>6772811.198980245</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111545401</v>
+        <v>111545323</v>
       </c>
       <c r="B6" t="n">
         <v>57487</v>
@@ -1223,14 +1223,10 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1241,14 +1237,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>480487.2503558649</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R6" t="n">
-        <v>6772784.264016891</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1317,7 +1313,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111543968</v>
+        <v>111545401</v>
       </c>
       <c r="B7" t="n">
         <v>57487</v>
@@ -1352,10 +1348,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1366,14 +1366,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>480406.6045043401</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R7" t="n">
-        <v>6772745.04339793</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111543968</v>
+        <v>111545323</v>
       </c>
       <c r="B2" t="n">
         <v>57487</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -729,14 +729,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>480406.6045043401</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R2" t="n">
-        <v>6772745.04339793</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111545328</v>
+        <v>111545414</v>
       </c>
       <c r="B3" t="n">
         <v>57494</v>
@@ -840,10 +840,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -854,14 +858,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>480427.8053356989</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R3" t="n">
-        <v>6772811.198980245</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -930,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111543957</v>
+        <v>111545401</v>
       </c>
       <c r="B4" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -942,30 +946,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -983,14 +987,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>480406.6045043401</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R4" t="n">
-        <v>6772745.04339793</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1059,7 +1063,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111545414</v>
+        <v>111543957</v>
       </c>
       <c r="B5" t="n">
         <v>57494</v>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1112,14 +1116,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>480487.2503558649</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R5" t="n">
-        <v>6772784.264016891</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1188,10 +1192,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111545323</v>
+        <v>111545328</v>
       </c>
       <c r="B6" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1200,30 +1204,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1313,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111545401</v>
+        <v>111543968</v>
       </c>
       <c r="B7" t="n">
         <v>57487</v>
@@ -1348,14 +1352,10 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1366,14 +1366,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>480487.2503558649</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R7" t="n">
-        <v>6772784.264016891</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111545414</v>
+        <v>111545401</v>
       </c>
       <c r="B3" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,30 +817,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -934,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545401</v>
+        <v>111545414</v>
       </c>
       <c r="B4" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,30 +946,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111545323</v>
+        <v>111545328</v>
       </c>
       <c r="B2" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111545401</v>
+        <v>111543968</v>
       </c>
       <c r="B3" t="n">
         <v>57487</v>
@@ -840,14 +840,10 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -858,14 +854,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>480487.2503558649</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R3" t="n">
-        <v>6772784.264016891</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -934,10 +930,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545414</v>
+        <v>111545323</v>
       </c>
       <c r="B4" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,37 +942,33 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -987,14 +979,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>480487.2503558649</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R4" t="n">
-        <v>6772784.264016891</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1063,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111543957</v>
+        <v>111545414</v>
       </c>
       <c r="B5" t="n">
         <v>57494</v>
@@ -1098,7 +1090,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1116,14 +1108,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>480406.6045043401</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R5" t="n">
-        <v>6772745.04339793</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1192,10 +1184,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111545328</v>
+        <v>111545401</v>
       </c>
       <c r="B6" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1204,33 +1196,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1241,14 +1237,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>480427.8053356989</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R6" t="n">
-        <v>6772811.198980245</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1317,10 +1313,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111543968</v>
+        <v>111543957</v>
       </c>
       <c r="B7" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1329,33 +1325,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>

--- a/artfynd/A 48343-2022.xlsx
+++ b/artfynd/A 48343-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111545328</v>
+        <v>111545414</v>
       </c>
       <c r="B2" t="n">
         <v>57494</v>
@@ -715,10 +715,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -729,14 +733,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>480427.8053356989</v>
+        <v>480487.2503558649</v>
       </c>
       <c r="R2" t="n">
-        <v>6772811.198980245</v>
+        <v>6772784.264016891</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -930,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111545323</v>
+        <v>111543957</v>
       </c>
       <c r="B4" t="n">
-        <v>57487</v>
+        <v>57494</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -942,33 +946,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205998</v>
+        <v>205992</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -979,14 +987,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
+          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>480427.8053356989</v>
+        <v>480406.6045043401</v>
       </c>
       <c r="R4" t="n">
-        <v>6772811.198980245</v>
+        <v>6772745.04339793</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1055,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111545414</v>
+        <v>111545323</v>
       </c>
       <c r="B5" t="n">
-        <v>57494</v>
+        <v>57487</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1067,37 +1075,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>205992</v>
+        <v>205998</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -1108,14 +1112,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i mitten av skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>480487.2503558649</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R5" t="n">
-        <v>6772784.264016891</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1313,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111543957</v>
+        <v>111545328</v>
       </c>
       <c r="B7" t="n">
         <v>57494</v>
@@ -1351,11 +1355,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1366,14 +1366,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Orsa Viborg, glänta i skogsparti, Dlr</t>
+          <t>Orsa Viborg, intill en grupp med hålträd, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>480406.6045043401</v>
+        <v>480427.8053356989</v>
       </c>
       <c r="R7" t="n">
-        <v>6772745.04339793</v>
+        <v>6772811.198980245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
